--- a/simulations/raw_inclusion_exclusion/Smid_2020 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Smid_2020 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
         <v>0.9629629629629629</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7582794061667301</v>
+        <v>0.7834031214312904</v>
       </c>
       <c r="I3">
-        <v>0.04324786324786325</v>
+        <v>0.03709401709401709</v>
       </c>
       <c r="J3">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K3">
-        <v>126.4444444444444</v>
+        <v>110.4444444444444</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -755,34 +755,34 @@
         <v>24</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T3">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U3">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="V3">
-        <v>2586</v>
+        <v>2597</v>
       </c>
       <c r="W3">
-        <v>2582</v>
+        <v>2588</v>
       </c>
       <c r="X3">
-        <v>2560</v>
+        <v>2568</v>
       </c>
       <c r="Y3">
-        <v>2503</v>
+        <v>2508</v>
       </c>
       <c r="Z3">
-        <v>2325</v>
+        <v>2381</v>
       </c>
       <c r="AA3">
         <v>25</v>
@@ -800,19 +800,19 @@
         <v>3</v>
       </c>
       <c r="AF3">
-        <v>0.994615</v>
+        <v>0.998846</v>
       </c>
       <c r="AG3">
-        <v>0.993077</v>
+        <v>0.995385</v>
       </c>
       <c r="AH3">
-        <v>0.984615</v>
+        <v>0.987692</v>
       </c>
       <c r="AI3">
-        <v>0.962692</v>
+        <v>0.964615</v>
       </c>
       <c r="AJ3">
-        <v>0.894231</v>
+        <v>0.9157690000000001</v>
       </c>
     </row>
   </sheetData>
